--- a/Derrick_Lux_Excel.xlsx
+++ b/Derrick_Lux_Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\class\Excel_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1189,15 +1189,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="494">
+  <dxfs count="52">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1215,1330 +1236,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2571,52 +1275,22 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
+      <numFmt numFmtId="170" formatCode="0.000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <numFmt numFmtId="168" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2932,7 +1606,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable1</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3517,7 +2191,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -4429,8 +3103,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable3</c:name>
-    <c:fmtId val="8"/>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable4</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -4453,12 +3127,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-GB" b="1">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Total Average Ratings</a:t>
+              <a:t>Average Current Price vs Old Price</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4540,6 +3214,51 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4552,11 +3271,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PIVOT TABLES'!$B$15</c:f>
+              <c:f>'PIVOT TABLES'!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Average of Current price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4573,42 +3292,107 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PIVOT TABLES'!$A$16:$A$19</c:f>
+              <c:f>'PIVOT TABLES'!$A$32:$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>High Discount</c:v>
+                  <c:v>Average</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Low Discount</c:v>
+                  <c:v>Excellent</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Medium Discount</c:v>
+                  <c:v>Poor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PIVOT TABLES'!$B$16:$B$19</c:f>
+              <c:f>'PIVOT TABLES'!$B$32:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.6133333333333324</c:v>
+                  <c:v>1482.3846153846155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7249999999999996</c:v>
+                  <c:v>1330.3225806451612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2782608695652184</c:v>
+                  <c:v>1054.044776119403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF64-4B0C-B745-C34732EF8291}"/>
+              <c16:uniqueId val="{00000000-256B-4BE3-8F4A-FF7E9176CC91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of old price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$A$32:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Excellent</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Poor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PIVOT TABLES'!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2219.4615384615386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2078.3225806451615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1594.9701492537313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-256B-4BE3-8F4A-FF7E9176CC91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4622,16 +3406,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96746912"/>
-        <c:axId val="96756896"/>
+        <c:axId val="835559711"/>
+        <c:axId val="835551807"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96746912"/>
+        <c:axId val="835559711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Qualitative Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4669,7 +3509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96756896"/>
+        <c:crossAx val="835551807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4677,7 +3517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96756896"/>
+        <c:axId val="835551807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,6 +3537,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4728,7 +3624,639 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96746912"/>
+        <c:crossAx val="835559711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable5</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sum of Current Price vs Old Price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Current price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$A$40:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High Discount</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Low Discount</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium Discount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PIVOT TABLES'!$B$40:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A669-4ABD-AAFE-86200B54708C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of old price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PIVOT TABLES'!$A$40:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>High Discount</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Low Discount</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Medium Discount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PIVOT TABLES'!$C$40:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A669-4ABD-AAFE-86200B54708C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="828797551"/>
+        <c:axId val="828802959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="828797551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Discount Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828802959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828802959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Sum of Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828797551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4839,7 +4367,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5850,7 +5378,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable3</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -6230,7 +5758,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -6962,7 +6490,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable4</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7534,7 +7062,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable5</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -8106,7 +7634,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable1</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8751,7 +8279,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -10368,7 +9896,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Derrick_Okeya_Lux_Excel.xlsx]PIVOT TABLES!PivotTable3</c:name>
+    <c:name>[Derrick_Lux_Excel.xlsx]PIVOT TABLES!PivotTable3</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10884,6 +10412,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12713,6 +12281,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -17011,7 +17082,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="3600" b="1"/>
-            <a:t>JUMIA PRODUCTS DASHBOARD</a:t>
+            <a:t>JUMIA PRODUCTS PERFORMANCE DASHBOARD</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17144,76 +17215,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>541695</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>222327</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25495</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>546809</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>232828</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11493232" y="1568824"/>
-          <a:ext cx="4551096" cy="2755631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -17424,7 +17425,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-GB" sz="1400" b="1"/>
-            <a:t>AVERAGE CURRENT PRICE</a:t>
+            <a:t>AVERAGE OLD PRICE</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17621,8 +17622,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Qualitative Rating"/>
@@ -17639,7 +17640,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17693,8 +17694,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>21982</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="Discount Percentage"/>
@@ -17711,7 +17712,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17906,6 +17907,70 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>250736</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113697</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>246220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26503</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19579,7 +19644,438 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A8:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="8" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Discount" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Count of Review" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="30">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A39:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -19638,7 +20134,7 @@
     <dataField name="Sum of Current price" fld="1" baseField="8" baseItem="0"/>
     <dataField name="Sum of old price" fld="2" baseField="8" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19657,6 +20153,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -19667,8 +20181,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A31:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -19835,32 +20349,32 @@
     <dataField name="Average of old price" fld="2" subtotal="average" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="449">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="448">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="447">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="446">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="445">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="444">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="443">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="442">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -19879,6 +20393,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -19889,8 +20421,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -19950,35 +20482,35 @@
     <dataField name="Average of Discount" fld="3" subtotal="average" baseField="7" baseItem="1"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="458">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="457">
+    <format dxfId="25">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="456">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="455">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="454">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="453">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="452">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="451">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="450">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20029,8 +20561,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -20476,25 +21008,25 @@
     <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="7" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="465">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="464">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="463">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="462">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="461">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="460">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="459">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20531,437 +21063,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A8:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="8" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Discount" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Count of Review" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="475">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="474">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="473">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="472">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="471">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="470">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="469">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="468">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="467">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="466">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="30">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="30">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="31">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="33">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="34">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="35">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -21026,25 +21127,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I113" totalsRowShown="0" headerRowDxfId="488" headerRowBorderDxfId="487" tableBorderDxfId="486" totalsRowBorderDxfId="485">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I113" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A1:I113"/>
   <sortState ref="A2:I113">
     <sortCondition ref="G2:G113"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Product" dataDxfId="484"/>
-    <tableColumn id="2" name="Current price" dataDxfId="483"/>
-    <tableColumn id="3" name="old price" dataDxfId="482"/>
-    <tableColumn id="4" name="Discount" dataDxfId="481"/>
-    <tableColumn id="8" name="Absolute Discount" dataDxfId="480">
+    <tableColumn id="1" name="Product" dataDxfId="42"/>
+    <tableColumn id="2" name="Current price" dataDxfId="41"/>
+    <tableColumn id="3" name="old price" dataDxfId="40"/>
+    <tableColumn id="4" name="Discount" dataDxfId="39"/>
+    <tableColumn id="8" name="Absolute Discount" dataDxfId="38">
       <calculatedColumnFormula>Table1[[#This Row],[old price]]-Table1[[#This Row],[Current price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Review" dataDxfId="479"/>
-    <tableColumn id="6" name="Ratings" dataDxfId="478"/>
-    <tableColumn id="11" name="Qualitative Rating" dataDxfId="477">
+    <tableColumn id="5" name="Review" dataDxfId="37"/>
+    <tableColumn id="6" name="Ratings" dataDxfId="36"/>
+    <tableColumn id="11" name="Qualitative Rating" dataDxfId="35">
       <calculatedColumnFormula>IF(G2&lt; 3,"Poor",IF(AND(G2&gt;=3,G2&lt;=4),"Average",IF(G2&gt;4,"Excellent","")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Discount Percentage" dataDxfId="476">
+    <tableColumn id="13" name="Discount Percentage" dataDxfId="34">
       <calculatedColumnFormula>IF(D2&lt;20%, "Low Discount",IF(AND(D2&gt;=20%,D2&lt;=40%),"Medium Discount",IF(D2&gt;40%,"High Discount","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21321,7 +21422,7 @@
   <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="L49" sqref="L49:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24869,7 +24970,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="str">
-        <f t="shared" ref="H98:H129" si="6">IF(G98&lt; 3,"Poor",IF(AND(G98&gt;=3,G98&lt;=4),"Average",IF(G98&gt;4,"Excellent","")))</f>
+        <f t="shared" ref="H98:H113" si="6">IF(G98&lt; 3,"Poor",IF(AND(G98&gt;=3,G98&lt;=4),"Average",IF(G98&gt;4,"Excellent","")))</f>
         <v>Poor</v>
       </c>
       <c r="I98" s="2" t="str">
@@ -25299,27 +25400,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I113">
-    <cfRule type="containsBlanks" dxfId="493" priority="5">
+    <cfRule type="containsBlanks" dxfId="51" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L35 L37">
-    <cfRule type="containsBlanks" dxfId="492" priority="4">
+    <cfRule type="containsBlanks" dxfId="50" priority="4">
       <formula>LEN(TRIM(L26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L47 L49">
-    <cfRule type="containsBlanks" dxfId="491" priority="3">
+    <cfRule type="containsBlanks" dxfId="49" priority="3">
       <formula>LEN(TRIM(L38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:L54 L56">
-    <cfRule type="containsBlanks" dxfId="490" priority="2">
+    <cfRule type="containsBlanks" dxfId="48" priority="2">
       <formula>LEN(TRIM(L50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L61 L64:L65">
-    <cfRule type="containsBlanks" dxfId="489" priority="1">
+    <cfRule type="containsBlanks" dxfId="47" priority="1">
       <formula>LEN(TRIM(L57))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25338,7 +25439,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -25638,8 +25739,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD52" sqref="AD52"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Derrick_Lux_Excel.xlsx
+++ b/Derrick_Lux_Excel.xlsx
@@ -1191,6 +1191,27 @@
   </cellStyles>
   <dxfs count="52">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -1203,22 +1224,22 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="0.0000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000000"/>
+      <numFmt numFmtId="170" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1236,13 +1257,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1270,27 +1291,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1653,7 +1653,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1898,7 +1897,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2019,7 +2017,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2094,7 +2091,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4401,7 +4397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4451,7 +4446,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4489,9 +4483,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -4871,9 +4863,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5281,7 +5271,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5412,7 +5401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5661,7 +5649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5792,7 +5779,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6197,7 +6183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6318,7 +6303,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6393,7 +6377,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6524,7 +6507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6769,7 +6751,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6890,7 +6871,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6965,7 +6945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7096,7 +7075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7341,7 +7319,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7462,7 +7439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7537,7 +7513,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19644,924 +19619,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A8:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="8" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Discount" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Count of Review" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="30">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="30">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="31">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="33">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="34">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="35">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A39:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Current price" fld="1" baseField="8" baseItem="0"/>
-    <dataField name="Sum of old price" fld="2" baseField="8" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A31:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="104">
-        <item x="19"/>
-        <item x="86"/>
-        <item x="102"/>
-        <item x="35"/>
-        <item x="78"/>
-        <item x="29"/>
-        <item x="16"/>
-        <item x="97"/>
-        <item x="47"/>
-        <item x="72"/>
-        <item x="40"/>
-        <item x="90"/>
-        <item x="80"/>
-        <item x="48"/>
-        <item x="59"/>
-        <item x="77"/>
-        <item x="15"/>
-        <item x="65"/>
-        <item x="63"/>
-        <item x="36"/>
-        <item x="54"/>
-        <item x="24"/>
-        <item x="58"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="39"/>
-        <item x="51"/>
-        <item x="13"/>
-        <item x="66"/>
-        <item x="92"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="41"/>
-        <item x="83"/>
-        <item x="81"/>
-        <item x="45"/>
-        <item x="70"/>
-        <item x="52"/>
-        <item x="69"/>
-        <item x="10"/>
-        <item x="84"/>
-        <item x="21"/>
-        <item x="87"/>
-        <item x="0"/>
-        <item x="67"/>
-        <item x="74"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="43"/>
-        <item x="61"/>
-        <item x="93"/>
-        <item x="98"/>
-        <item x="73"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="60"/>
-        <item x="8"/>
-        <item x="85"/>
-        <item x="26"/>
-        <item x="95"/>
-        <item x="50"/>
-        <item x="75"/>
-        <item x="89"/>
-        <item x="79"/>
-        <item x="82"/>
-        <item x="88"/>
-        <item x="68"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="34"/>
-        <item x="22"/>
-        <item x="99"/>
-        <item x="49"/>
-        <item x="76"/>
-        <item x="14"/>
-        <item x="71"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="100"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="96"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="2"/>
-        <item x="28"/>
-        <item x="64"/>
-        <item x="6"/>
-        <item x="38"/>
-        <item x="53"/>
-        <item x="25"/>
-        <item x="5"/>
-        <item x="91"/>
-        <item x="94"/>
-        <item x="62"/>
-        <item x="37"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Current price" fld="1" subtotal="average" baseField="7" baseItem="0"/>
-    <dataField name="Average of old price" fld="2" subtotal="average" baseField="7" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Ratings" fld="6" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Average of Discount" fld="3" subtotal="average" baseField="7" baseItem="1"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="26">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -21008,25 +20065,25 @@
     <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="7" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="33">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21063,6 +20120,924 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A8:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Ratings" fld="6" subtotal="average" baseField="8" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Discount" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Count of Review" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="30">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A39:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Current price" fld="1" baseField="8" baseItem="0"/>
+    <dataField name="Sum of old price" fld="2" baseField="8" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A31:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="104">
+        <item x="19"/>
+        <item x="86"/>
+        <item x="102"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="97"/>
+        <item x="47"/>
+        <item x="72"/>
+        <item x="40"/>
+        <item x="90"/>
+        <item x="80"/>
+        <item x="48"/>
+        <item x="59"/>
+        <item x="77"/>
+        <item x="15"/>
+        <item x="65"/>
+        <item x="63"/>
+        <item x="36"/>
+        <item x="54"/>
+        <item x="24"/>
+        <item x="58"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="39"/>
+        <item x="51"/>
+        <item x="13"/>
+        <item x="66"/>
+        <item x="92"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="41"/>
+        <item x="83"/>
+        <item x="81"/>
+        <item x="45"/>
+        <item x="70"/>
+        <item x="52"/>
+        <item x="69"/>
+        <item x="10"/>
+        <item x="84"/>
+        <item x="21"/>
+        <item x="87"/>
+        <item x="0"/>
+        <item x="67"/>
+        <item x="74"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="43"/>
+        <item x="61"/>
+        <item x="93"/>
+        <item x="98"/>
+        <item x="73"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="60"/>
+        <item x="8"/>
+        <item x="85"/>
+        <item x="26"/>
+        <item x="95"/>
+        <item x="50"/>
+        <item x="75"/>
+        <item x="89"/>
+        <item x="79"/>
+        <item x="82"/>
+        <item x="88"/>
+        <item x="68"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="99"/>
+        <item x="49"/>
+        <item x="76"/>
+        <item x="14"/>
+        <item x="71"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="100"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="96"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="6"/>
+        <item x="38"/>
+        <item x="53"/>
+        <item x="25"/>
+        <item x="5"/>
+        <item x="91"/>
+        <item x="94"/>
+        <item x="62"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Current price" fld="1" subtotal="average" baseField="7" baseItem="0"/>
+    <dataField name="Average of old price" fld="2" subtotal="average" baseField="7" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Ratings" fld="6" subtotal="count" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Discount" fld="3" subtotal="average" baseField="7" baseItem="1"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
